--- a/Ankers_table.xlsx
+++ b/Ankers_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.zurabyan\PycharmProjects\Ankara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BA18F8-31BE-44C5-8B63-1FC86208EFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7984C928-4EF3-4392-BEDC-AA36659FC48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{771ECF49-52F5-47B1-ABAA-C951B0CDA192}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>N</t>
   </si>
@@ -36,9 +36,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>A400</t>
-  </si>
-  <si>
     <t>Образование трещин</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Основание</t>
   </si>
   <si>
-    <t>В25</t>
-  </si>
-  <si>
     <t>c_1_x</t>
   </si>
   <si>
@@ -70,6 +64,24 @@
   </si>
   <si>
     <t>c_1_y</t>
+  </si>
+  <si>
+    <t>Толщина основания</t>
+  </si>
+  <si>
+    <t>A500</t>
+  </si>
+  <si>
+    <t>Длина анкера</t>
+  </si>
+  <si>
+    <t>В30</t>
+  </si>
+  <si>
+    <t>Vx</t>
+  </si>
+  <si>
+    <t>Vy</t>
   </si>
 </sst>
 </file>
@@ -203,7 +215,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Лист1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -236,7 +248,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$8</c:f>
+              <c:f>Лист1!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -263,7 +275,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$8</c:f>
+              <c:f>Лист1!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1042,16 +1054,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1078,13 +1090,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>523048</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>180738</xdr:rowOff>
@@ -1420,149 +1432,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F60F15-E329-4B70-A04B-6CF0329B8168}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>120</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>12</v>
+      <c r="H9" s="1">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>120</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1">
+        <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>120</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>60</v>
-      </c>
-      <c r="C7">
-        <v>120</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1">
-        <v>50</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
